--- a/biology/Botanique/Piotr_Maïevski/Piotr_Maïevski.xlsx
+++ b/biology/Botanique/Piotr_Maïevski/Piotr_Maïevski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Piotr_Ma%C3%AFevski</t>
+          <t>Piotr_Maïevski</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Piotr Maïevski (en russe : Пётр Феликсович Маевский, Piotr Feliksovitch Maïevski) est un taxonomiste et botaniste russe, spécialiste notamment des Spermatophytes. Son abréviation en botanique est Majevski.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Piotr_Ma%C3%AFevski</t>
+          <t>Piotr_Maïevski</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Diplômé de l'Université impériale de Moscou (en), il donna ensuite des cours dans des écoles secondaires, et pendant une courte durée, il donna des conférences à l'Instytut Gospodarstwa Wiejskiego i Leśnictwa (pl).
 Immédiatement après avoir obtenu son diplôme, il publia deux livres d'anatomie et de morphologie végétales, l'un sur la structure des fruits des citrouilles, et l'autre sur les feuilles de bégonias. Quant au sujet de sa thèse, présentée en 1879 à Saint-Pétersbourg, elle avait trait à la structure des fleurs doubles.
